--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>318894.2909555871</v>
+        <v>317006.7094391846</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186.5182518621464</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>143.2545992682437</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>93.95831792021254</v>
       </c>
       <c r="U4" t="n">
-        <v>123.4514883688806</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>313.7752222239637</v>
       </c>
       <c r="H5" t="n">
-        <v>300.1677877827983</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>133.4548648132222</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>74.09260911231095</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>26.53815412835837</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>23.59422216441219</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.7268375758688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>6.220352074849088</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>157.2425576766696</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>132.6687732914904</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>204.3570920314914</v>
+        <v>119.8338438389639</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>61.38835405840659</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>41.04923259898223</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>92.39041249234464</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>204.1291651532058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>33.06963601466241</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>159.5890356960718</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>173.9898110906267</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965538</v>
+        <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180122</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437427</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897916</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571501</v>
+        <v>34.13920135272716</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
-        <v>120.5694252656808</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789621</v>
+        <v>80.78193823789577</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463129</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T46" t="n">
         <v>153.4156709287486</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1162.808134697004</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>777.0198820987598</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>770.0743813495563</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>352.1105732477432</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224079</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>2311.057514205145</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y2" t="n">
-        <v>1920.918182229333</v>
+        <v>1521.073833303755</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="U4" t="n">
-        <v>603.4305111065548</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="V4" t="n">
-        <v>348.7460229006679</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="W4" t="n">
-        <v>348.7460229006679</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="X4" t="n">
-        <v>348.7460229006679</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>485.0749338020197</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1526.106027515566</v>
+        <v>1150.836072463478</v>
       </c>
       <c r="C5" t="n">
-        <v>1526.106027515566</v>
+        <v>781.8735555230667</v>
       </c>
       <c r="D5" t="n">
-        <v>1167.840328908816</v>
+        <v>781.8735555230667</v>
       </c>
       <c r="E5" t="n">
-        <v>782.0520763105712</v>
+        <v>781.8735555230667</v>
       </c>
       <c r="F5" t="n">
-        <v>775.1065755613678</v>
+        <v>370.8876507334591</v>
       </c>
       <c r="G5" t="n">
-        <v>357.1427674595546</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X5" t="n">
-        <v>1916.245359491378</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="Y5" t="n">
-        <v>1526.106027515566</v>
+        <v>1150.836072463478</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.745875571094</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C7" t="n">
-        <v>188.745875571094</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D7" t="n">
-        <v>188.745875571094</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>188.745875571094</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>188.745875571094</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>188.745875571094</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>188.745875571094</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146241</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X7" t="n">
-        <v>409.5384547146241</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y7" t="n">
-        <v>188.745875571094</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2670.342874726952</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.342874726952</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.342874726952</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.342874726952</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V8" t="n">
-        <v>2339.279987383381</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W8" t="n">
-        <v>1986.511332113267</v>
+        <v>2123.618989005894</v>
       </c>
       <c r="X8" t="n">
-        <v>1613.045573852188</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="Y8" t="n">
-        <v>1222.906241876376</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>263.631062734689</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>263.631062734689</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>263.631062734689</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>263.631062734689</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>263.631062734689</v>
       </c>
     </row>
     <row r="11">
@@ -5036,7 +5036,7 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5048,19 +5048,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5121,19 +5121,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>378.1030765138945</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>624.8682044203586</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>932.1883377003201</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>844.1942894808744</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="C13" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799358</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1253.832305209131</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>1253.832305209131</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>1025.842754311114</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>1025.842754311114</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>358.8683222506741</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C16" t="n">
-        <v>358.8683222506741</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765183</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765183</v>
+        <v>955.1031435655734</v>
       </c>
       <c r="W16" t="n">
-        <v>786.0822064765183</v>
+        <v>665.6859735286129</v>
       </c>
       <c r="X16" t="n">
-        <v>579.6609013942042</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="Y16" t="n">
-        <v>358.8683222506741</v>
+        <v>544.6416868225887</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5598,13 +5598,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977053</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>434.3285960683721</v>
+        <v>604.1452103957599</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5677,16 +5677,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609662</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609662</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W19" t="n">
-        <v>696.5850465240055</v>
+        <v>785.7936752259997</v>
       </c>
       <c r="X19" t="n">
-        <v>655.1211752119023</v>
+        <v>785.7936752259997</v>
       </c>
       <c r="Y19" t="n">
-        <v>434.3285960683721</v>
+        <v>785.7936752259997</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,13 +5750,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557903</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1405.592621575736</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1405.592621575736</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765189</v>
+        <v>1405.592621575736</v>
       </c>
       <c r="V22" t="n">
-        <v>531.397718270632</v>
+        <v>1150.908133369849</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>861.4909633328887</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,13 +6002,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>550.2226492899333</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>857.5427825698951</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>434.3285960683722</v>
+        <v>579.0685056491544</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404654</v>
+        <v>579.0685056491544</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404654</v>
+        <v>428.9518662368187</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404654</v>
+        <v>281.0387726544255</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404654</v>
+        <v>281.0387726544255</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>281.0387726544255</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>130.6207642023691</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,46 +6151,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1137.795214315807</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>883.1107261099197</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>883.1107261099197</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X25" t="n">
-        <v>655.1211752119024</v>
+        <v>981.5095496229242</v>
       </c>
       <c r="Y25" t="n">
-        <v>434.3285960683722</v>
+        <v>760.7169704793941</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028586</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6449,31 +6449,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215261</v>
+        <v>638.4560528787348</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749899</v>
+        <v>525.2807352321987</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440249</v>
+        <v>430.9249611012338</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430024</v>
+        <v>338.7727328002115</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264627</v>
+        <v>338.7727328002115</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>226.3582764014029</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>131.7011332307173</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1814.338764807912</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1646.314214878788</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1412.946441373717</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1214.022818449201</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="W31" t="n">
-        <v>1214.022818449201</v>
+        <v>1101.604051906409</v>
       </c>
       <c r="X31" t="n">
-        <v>1041.794132832555</v>
+        <v>929.375366289763</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703952</v>
+        <v>764.3436524276037</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103132</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,10 +6871,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
@@ -6883,10 +6883,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6932,52 +6932,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,28 +7002,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254958</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,34 +7157,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7193,31 +7193,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7640,25 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7670,7 +7670,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7713,34 +7713,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504511</v>
@@ -7804,7 +7804,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254958</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747117</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,22 +8769,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>91.23759968302147</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9246,16 +9246,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O18" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>15.83804904622809</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>10.00426342195826</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,13 +23470,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>119.4688700323376</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>21.35256335754574</v>
+        <v>105.8758115500732</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>105.8584670402212</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>184.6604227900549</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24127,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>105.5303974912586</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>82.3938331833852</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>77.34960944960959</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,19 +24412,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>126.6483167025055</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338537</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>51.71984429841046</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>21.07678748298773</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523582</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.14812808936552</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-5.988543122513853e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1070036.337222678</v>
+        <v>1070036.337222677</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1070036.337222678</v>
+        <v>1070036.337222677</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
         <v>328416.7079457131</v>
       </c>
       <c r="E2" t="n">
+        <v>312823.247790167</v>
+      </c>
+      <c r="F2" t="n">
         <v>312823.2477901669</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>312823.247790167</v>
-      </c>
-      <c r="G2" t="n">
-        <v>312823.2477901672</v>
       </c>
       <c r="H2" t="n">
         <v>312823.247790167</v>
       </c>
       <c r="I2" t="n">
-        <v>312823.247790167</v>
+        <v>312823.2477901669</v>
       </c>
       <c r="J2" t="n">
-        <v>312823.247790167</v>
+        <v>312823.2477901669</v>
       </c>
       <c r="K2" t="n">
         <v>325457.7098762158</v>
       </c>
       <c r="L2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="M2" t="n">
         <v>328416.7079457132</v>
       </c>
       <c r="N2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="O2" t="n">
-        <v>328416.7079457136</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457136</v>
+        <v>328416.7079457135</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284556</v>
+        <v>44162.60530284569</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086696</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284571</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="I4" t="n">
-        <v>15045.66962143909</v>
-      </c>
       <c r="J4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563557</v>
+        <v>33210.29213563565</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
+        <v>37464.45686275965</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="N4" t="n">
-        <v>37464.45686275956</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275957</v>
-      </c>
       <c r="P4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.4568627596</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,16 +26500,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-501185.2075834631</v>
+        <v>-501185.2075834632</v>
       </c>
       <c r="C6" t="n">
-        <v>88782.67163108123</v>
+        <v>88782.67163108118</v>
       </c>
       <c r="D6" t="n">
-        <v>88782.67163108106</v>
+        <v>88782.67163108107</v>
       </c>
       <c r="E6" t="n">
-        <v>-319369.7842568848</v>
+        <v>-319467.2433828569</v>
       </c>
       <c r="F6" t="n">
-        <v>205790.2522200113</v>
+        <v>205692.793094039</v>
       </c>
       <c r="G6" t="n">
-        <v>205790.2522200114</v>
+        <v>205692.7930940391</v>
       </c>
       <c r="H6" t="n">
-        <v>205790.2522200111</v>
+        <v>205692.7930940391</v>
       </c>
       <c r="I6" t="n">
-        <v>205790.2522200113</v>
+        <v>205692.793094039</v>
       </c>
       <c r="J6" t="n">
-        <v>29367.03302741829</v>
+        <v>29269.5739014461</v>
       </c>
       <c r="K6" t="n">
-        <v>151456.6039075119</v>
+        <v>151438.1101695773</v>
       </c>
       <c r="L6" t="n">
         <v>182894.2384620616</v>
       </c>
       <c r="M6" t="n">
-        <v>58436.1300290911</v>
+        <v>58436.13002909109</v>
       </c>
       <c r="N6" t="n">
-        <v>193237.1452629282</v>
+        <v>193237.1452629285</v>
       </c>
       <c r="O6" t="n">
-        <v>193237.1452629286</v>
+        <v>193237.1452629284</v>
       </c>
       <c r="P6" t="n">
-        <v>149074.539960083</v>
+        <v>149074.5399600828</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010837</v>
+        <v>12.92863350108359</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>196.2155898013342</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>180.6681734961134</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>131.0767875378717</v>
       </c>
       <c r="U4" t="n">
-        <v>162.8303858730972</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>100.0089477968313</v>
       </c>
       <c r="H5" t="n">
-        <v>23.75498498155889</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.510756979115996</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>212.1892651296668</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>27.9402484464533</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>325.6467465530008</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060685</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>139.2006959480822</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -29983,13 +29983,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>241.8130382709607</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>265.0957540022525</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941225</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043173</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
@@ -38187,13 +38187,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
